--- a/public/DataMatkul/pegawai.xlsx
+++ b/public/DataMatkul/pegawai.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daffa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E644D-398A-4DF9-9FF1-03FCF33FF501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73ABAD85-3F4C-4E8A-BD1C-68DBD98BAF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="cpl-template" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
